--- a/Data/e_data/환경데이터(최종).xlsx
+++ b/Data/e_data/환경데이터(최종).xlsx
@@ -1,20 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sksgm\Desktop\BEE_git\Data\e_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AF46AA-6B2C-4C22-B48F-038D51FFA5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView minimized="1" xWindow="4440" yWindow="3010" windowWidth="12430" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$V$201</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="784">
   <si>
     <t>종목코드</t>
   </si>
@@ -2252,38 +2272,270 @@
   </si>
   <si>
     <t>농업, 임업 및 어업</t>
+  </si>
+  <si>
+    <t>온실가스 점수</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>에너지 점수</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>환경 점수</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>온실가스 배출량</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 ~ 40미만</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 5미만</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 ~ 20미만</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>40 ~ 100미만</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>결측치</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 ~ 300미만</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>300 ~ 1000미만</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000 ~</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>도수</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>에너지 사용량</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ 0.1미만</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1 ~ 0.5미만</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5 ~ 1미만</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 ~ 2미만</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 ~ 10미만</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 ~ 100미만</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 ~ 1000미만</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>업종별 점수 가감</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>분위수</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>가감점</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 ~ 20</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 ~ 40</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>40 ~ 60</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>60 ~ 80</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>80 ~ 100</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수 간격이 10점이므로 이를 고려해 2점씩 가감</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>온실가스 가감</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>에너지 가감</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>온실가스 총점</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>에너지 총점</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -2306,26 +2558,264 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="7">
+    <cellStyle name="20% - 강조색2" xfId="3" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="6" builtinId="38"/>
+    <cellStyle name="20% - 강조색6" xfId="4" builtinId="50"/>
+    <cellStyle name="나쁨" xfId="1" builtinId="27"/>
+    <cellStyle name="보통" xfId="2" builtinId="28"/>
+    <cellStyle name="좋음" xfId="5" builtinId="26"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2367,7 +2857,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2399,9 +2889,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2433,6 +2941,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2608,14 +3134,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O201"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="14" max="14" width="32.1640625" customWidth="1"/>
+    <col min="15" max="15" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.25" customWidth="1"/>
+    <col min="17" max="17" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.25" customWidth="1"/>
+    <col min="19" max="19" width="11.25" customWidth="1"/>
+    <col min="20" max="20" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.25" customWidth="1"/>
+    <col min="22" max="22" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="8.6640625" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2658,8 +3199,29 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>746</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>747</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>780</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>782</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2705,8 +3267,37 @@
       <c r="O2">
         <v>0.1065</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>70</v>
+      </c>
+      <c r="Q2">
+        <v>80</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>2</v>
+      </c>
+      <c r="T2">
+        <f>P2+R2</f>
+        <v>70</v>
+      </c>
+      <c r="U2">
+        <f>Q2+S2</f>
+        <v>82</v>
+      </c>
+      <c r="V2">
+        <f>(T2+U2)/2</f>
+        <v>76</v>
+      </c>
+      <c r="Y2" s="13" t="s">
+        <v>749</v>
+      </c>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="15"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2752,8 +3343,41 @@
       <c r="O3">
         <v>0.2646</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>70</v>
+      </c>
+      <c r="Q3">
+        <v>80</v>
+      </c>
+      <c r="R3">
+        <v>-2</v>
+      </c>
+      <c r="S3">
+        <v>-2</v>
+      </c>
+      <c r="T3">
+        <f t="shared" ref="T3:T66" si="0">P3+R3</f>
+        <v>68</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U66" si="1">Q3+S3</f>
+        <v>78</v>
+      </c>
+      <c r="V3">
+        <f t="shared" ref="V3:V66" si="2">(T3+U3)/2</f>
+        <v>73</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2797,10 +3421,44 @@
         <v>1.88</v>
       </c>
       <c r="O4">
-        <v>0.0339</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>3.39E-2</v>
+      </c>
+      <c r="P4">
+        <v>80</v>
+      </c>
+      <c r="Q4">
+        <v>90</v>
+      </c>
+      <c r="R4">
+        <v>4</v>
+      </c>
+      <c r="S4">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="Y4" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="Z4" s="3">
+        <f>COUNTIF(N:N, "&lt;5")</f>
+        <v>76</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2844,10 +3502,44 @@
         <v>4.32</v>
       </c>
       <c r="O5">
-        <v>0.0891</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>8.9099999999999999E-2</v>
+      </c>
+      <c r="P5">
+        <v>80</v>
+      </c>
+      <c r="Q5">
+        <v>90</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="Y5" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="Z5" s="3">
+        <f>COUNTIFS(N:N, "&gt;=5",N:N, "&lt;20")</f>
+        <v>43</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2891,10 +3583,44 @@
         <v>10.72</v>
       </c>
       <c r="O6">
-        <v>0.2171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.21709999999999999</v>
+      </c>
+      <c r="P6">
+        <v>70</v>
+      </c>
+      <c r="Q6">
+        <v>80</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="Z6" s="3">
+        <f>COUNTIFS(N:N, "&gt;=20",N:N, "&lt;40")</f>
+        <v>14</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2938,10 +3664,44 @@
         <v>39.25</v>
       </c>
       <c r="O7">
-        <v>0.7316</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.73160000000000003</v>
+      </c>
+      <c r="P7">
+        <v>60</v>
+      </c>
+      <c r="Q7">
+        <v>70</v>
+      </c>
+      <c r="R7">
+        <v>-2</v>
+      </c>
+      <c r="S7">
+        <v>-2</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="Y7" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="Z7" s="3">
+        <f>COUNTIFS(N:N, "&gt;=40",N:N, "&lt;100")</f>
+        <v>14</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2987,8 +3747,42 @@
       <c r="O8">
         <v>0.1275</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>70</v>
+      </c>
+      <c r="Q8">
+        <v>80</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="Z8" s="3">
+        <f>COUNTIFS(N:N, "&gt;=100",N:N, "&lt;300")</f>
+        <v>11</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -3029,13 +3823,47 @@
         <v>50661002000000</v>
       </c>
       <c r="N9">
-        <v>4.73</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="O9">
-        <v>0.0483</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>4.8300000000000003E-2</v>
+      </c>
+      <c r="P9">
+        <v>80</v>
+      </c>
+      <c r="Q9">
+        <v>90</v>
+      </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
+      <c r="S9">
+        <v>4</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="Z9" s="3">
+        <f>COUNTIFS(N:N, "&gt;=300",N:N, "&lt;1000")</f>
+        <v>1</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -3079,10 +3907,44 @@
         <v>3.11</v>
       </c>
       <c r="O10">
-        <v>0.0631</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>6.3100000000000003E-2</v>
+      </c>
+      <c r="P10">
+        <v>80</v>
+      </c>
+      <c r="Q10">
+        <v>90</v>
+      </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
+      <c r="S10">
+        <v>2</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="Z10" s="3">
+        <f>COUNTIF(N:N, "&gt;=1000")</f>
+        <v>1</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -3126,10 +3988,44 @@
         <v>2.06</v>
       </c>
       <c r="O11">
-        <v>0.0416</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="P11">
+        <v>80</v>
+      </c>
+      <c r="Q11">
+        <v>90</v>
+      </c>
+      <c r="R11">
+        <v>4</v>
+      </c>
+      <c r="S11">
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="Y11" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="Z11" s="4">
+        <f>AA8</f>
+        <v>40</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -3146,7 +4042,7 @@
         <v>1000</v>
       </c>
       <c r="F12">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G12">
         <v>30428205</v>
@@ -3175,8 +4071,42 @@
       <c r="O12">
         <v>1.4438</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>40</v>
+      </c>
+      <c r="Q12">
+        <v>60</v>
+      </c>
+      <c r="R12">
+        <v>-4</v>
+      </c>
+      <c r="S12">
+        <v>-4</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>761</v>
+      </c>
+      <c r="Z12" s="7">
+        <f>SUM(Z4:Z11)</f>
+        <v>200</v>
+      </c>
+      <c r="AA12" s="8" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3220,10 +4150,34 @@
         <v>0.71</v>
       </c>
       <c r="O13">
-        <v>0.0144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>1.44E-2</v>
+      </c>
+      <c r="P13">
+        <v>80</v>
+      </c>
+      <c r="Q13">
+        <v>90</v>
+      </c>
+      <c r="R13">
+        <v>4</v>
+      </c>
+      <c r="S13">
+        <v>4</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3267,10 +4221,34 @@
         <v>0.45</v>
       </c>
       <c r="O14">
-        <v>0.0095</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>9.4999999999999998E-3</v>
+      </c>
+      <c r="P14">
+        <v>80</v>
+      </c>
+      <c r="Q14">
+        <v>90</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3316,8 +4294,37 @@
       <c r="O15">
         <v>0.2324</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>80</v>
+      </c>
+      <c r="Q15">
+        <v>80</v>
+      </c>
+      <c r="R15">
+        <v>4</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y15" s="16" t="s">
+        <v>763</v>
+      </c>
+      <c r="Z15" s="17"/>
+      <c r="AA15" s="18"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3357,8 +4364,38 @@
       <c r="N16">
         <v>231.45</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>40</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>-4</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="U16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="Y16" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="Z16" s="11" t="s">
+        <v>760</v>
+      </c>
+      <c r="AA16" s="11" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3399,13 +4436,47 @@
         <v>3808247747000</v>
       </c>
       <c r="N17">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="O17">
         <v>0.104</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>70</v>
+      </c>
+      <c r="Q17">
+        <v>80</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="U17">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="Z17" s="3">
+        <f>COUNTIF(O:O, "&lt;0.1")</f>
+        <v>68</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3449,10 +4520,44 @@
         <v>1.03</v>
       </c>
       <c r="O18">
-        <v>0.0224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>2.24E-2</v>
+      </c>
+      <c r="P18">
+        <v>80</v>
+      </c>
+      <c r="Q18">
+        <v>90</v>
+      </c>
+      <c r="R18">
+        <v>4</v>
+      </c>
+      <c r="S18">
+        <v>4</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="U18">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="Y18" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="Z18" s="3">
+        <f>COUNTIFS(O:O, "&gt;=0.1",O:O, "&lt;0.5")</f>
+        <v>47</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3496,10 +4601,44 @@
         <v>8.85</v>
       </c>
       <c r="O19">
-        <v>0.1819</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.18190000000000001</v>
+      </c>
+      <c r="P19">
+        <v>70</v>
+      </c>
+      <c r="Q19">
+        <v>80</v>
+      </c>
+      <c r="R19">
+        <v>-2</v>
+      </c>
+      <c r="S19">
+        <v>-2</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="U19">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="Y19" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="Z19" s="3">
+        <f>COUNTIFS(O:O, "&gt;=0.5",O:O, "&lt;1")</f>
+        <v>14</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -3545,8 +4684,42 @@
       <c r="O20">
         <v>0.1651</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>70</v>
+      </c>
+      <c r="Q20">
+        <v>80</v>
+      </c>
+      <c r="R20">
+        <v>-2</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="U20">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="Y20" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="Z20" s="3">
+        <f>COUNTIFS(O:O, "&gt;=1",O:O, "&lt;2")</f>
+        <v>11</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -3590,10 +4763,44 @@
         <v>5.39</v>
       </c>
       <c r="O21">
-        <v>0.0132</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>1.32E-2</v>
+      </c>
+      <c r="P21">
+        <v>70</v>
+      </c>
+      <c r="Q21">
+        <v>90</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>2</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="U21">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="Y21" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="Z21" s="3">
+        <f>COUNTIFS(O:O, "&gt;=2",O:O, "&lt;10")</f>
+        <v>5</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -3610,7 +4817,7 @@
         <v>3000</v>
       </c>
       <c r="F22">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="G22">
         <v>18856560</v>
@@ -3637,10 +4844,44 @@
         <v>1.84</v>
       </c>
       <c r="O22">
-        <v>0.0386</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>3.8600000000000002E-2</v>
+      </c>
+      <c r="P22">
+        <v>80</v>
+      </c>
+      <c r="Q22">
+        <v>90</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="U22">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="Y22" s="5" t="s">
+        <v>769</v>
+      </c>
+      <c r="Z22" s="3">
+        <f>COUNTIFS(O:O, "&gt;=10",O:O, "&lt;100")</f>
+        <v>4</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -3684,10 +4925,44 @@
         <v>78.92</v>
       </c>
       <c r="O23">
-        <v>0.9711</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.97109999999999996</v>
+      </c>
+      <c r="P23">
+        <v>50</v>
+      </c>
+      <c r="Q23">
+        <v>70</v>
+      </c>
+      <c r="R23">
+        <v>-2</v>
+      </c>
+      <c r="S23">
+        <v>-2</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="U23">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="Y23" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="Z23" s="3">
+        <f>COUNTIFS(O:O, "&gt;=100",O:O, "&lt;1000")</f>
+        <v>3</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -3731,10 +5006,44 @@
         <v>1.8</v>
       </c>
       <c r="O24">
-        <v>0.0121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>1.21E-2</v>
+      </c>
+      <c r="P24">
+        <v>80</v>
+      </c>
+      <c r="Q24">
+        <v>90</v>
+      </c>
+      <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>2</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="U24">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="Y24" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="Z24" s="3">
+        <f>COUNTIF(O:O, "&gt;=1000")</f>
+        <v>3</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -3768,8 +5077,36 @@
       <c r="M25">
         <v>1016202000000</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="Z25" s="4">
+        <f>COUNTBLANK(O2:O201)</f>
+        <v>45</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -3813,10 +5150,44 @@
         <v>0.23</v>
       </c>
       <c r="O26">
-        <v>0.0031</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="P26">
+        <v>80</v>
+      </c>
+      <c r="Q26">
+        <v>90</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>2</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="Y26" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="Z26" s="10">
+        <f>SUM(Z17:Z25)</f>
+        <v>200</v>
+      </c>
+      <c r="AA26" s="11" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -3860,10 +5231,34 @@
         <v>28.13</v>
       </c>
       <c r="O27">
-        <v>0.5703</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="P27">
+        <v>60</v>
+      </c>
+      <c r="Q27">
+        <v>70</v>
+      </c>
+      <c r="R27">
+        <v>-2</v>
+      </c>
+      <c r="S27">
+        <v>-2</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -3907,10 +5302,36 @@
         <v>7.93</v>
       </c>
       <c r="O28">
-        <v>0.1637</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>0.16370000000000001</v>
+      </c>
+      <c r="P28">
+        <v>70</v>
+      </c>
+      <c r="Q28">
+        <v>80</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -3954,10 +5375,38 @@
         <v>0.6</v>
       </c>
       <c r="O29">
-        <v>0.0128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>1.2800000000000001E-2</v>
+      </c>
+      <c r="P29">
+        <v>80</v>
+      </c>
+      <c r="Q29">
+        <v>90</v>
+      </c>
+      <c r="R29">
+        <v>4</v>
+      </c>
+      <c r="S29">
+        <v>4</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="Y29" s="23" t="s">
+        <v>771</v>
+      </c>
+      <c r="Z29" s="24"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -3974,7 +5423,7 @@
         <v>500</v>
       </c>
       <c r="F30">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G30">
         <v>13308982</v>
@@ -4001,10 +5450,40 @@
         <v>2.09</v>
       </c>
       <c r="O30">
-        <v>0.0428</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="P30">
+        <v>80</v>
+      </c>
+      <c r="Q30">
+        <v>90</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>2</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="V30">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="Y30" s="25" t="s">
+        <v>772</v>
+      </c>
+      <c r="Z30" s="25" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4050,8 +5529,38 @@
       <c r="O31">
         <v>0.2576</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="P31">
+        <v>70</v>
+      </c>
+      <c r="Q31">
+        <v>80</v>
+      </c>
+      <c r="R31">
+        <v>-4</v>
+      </c>
+      <c r="S31">
+        <v>-2</v>
+      </c>
+      <c r="T31">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="V31">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="Y31" s="20" t="s">
+        <v>774</v>
+      </c>
+      <c r="Z31" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4068,7 +5577,7 @@
         <v>-2500</v>
       </c>
       <c r="F32">
-        <v>-1.11</v>
+        <v>-1.1100000000000001</v>
       </c>
       <c r="G32">
         <v>12977785</v>
@@ -4095,10 +5604,40 @@
         <v>1.49</v>
       </c>
       <c r="O32">
-        <v>0.0304</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>3.04E-2</v>
+      </c>
+      <c r="P32">
+        <v>80</v>
+      </c>
+      <c r="Q32">
+        <v>90</v>
+      </c>
+      <c r="R32">
+        <v>4</v>
+      </c>
+      <c r="S32">
+        <v>4</v>
+      </c>
+      <c r="T32">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="V32">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="Y32" s="20" t="s">
+        <v>775</v>
+      </c>
+      <c r="Z32" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4142,10 +5681,40 @@
         <v>149</v>
       </c>
       <c r="O33">
-        <v>0.9383</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>0.93830000000000002</v>
+      </c>
+      <c r="P33">
+        <v>40</v>
+      </c>
+      <c r="Q33">
+        <v>70</v>
+      </c>
+      <c r="R33">
+        <v>-4</v>
+      </c>
+      <c r="S33">
+        <v>-4</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="Y33" s="20" t="s">
+        <v>776</v>
+      </c>
+      <c r="Z33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4189,10 +5758,40 @@
         <v>3.31</v>
       </c>
       <c r="O34">
-        <v>0.06419999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="P34">
+        <v>80</v>
+      </c>
+      <c r="Q34">
+        <v>90</v>
+      </c>
+      <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>2</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="V34">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="Y34" s="20" t="s">
+        <v>777</v>
+      </c>
+      <c r="Z34" s="5">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4226,8 +5825,32 @@
       <c r="M35">
         <v>453369548000</v>
       </c>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y35" s="21" t="s">
+        <v>778</v>
+      </c>
+      <c r="Z35" s="22">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4273,8 +5896,38 @@
       <c r="O36">
         <v>0.1268</v>
       </c>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="P36">
+        <v>70</v>
+      </c>
+      <c r="Q36">
+        <v>80</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>2</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="V36">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="Y36" s="19" t="s">
+        <v>779</v>
+      </c>
+      <c r="Z36" s="19"/>
+      <c r="AA36" s="19"/>
+      <c r="AB36" s="19"/>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4318,10 +5971,34 @@
         <v>4.95</v>
       </c>
       <c r="O37">
-        <v>0.0755</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+        <v>7.5499999999999998E-2</v>
+      </c>
+      <c r="P37">
+        <v>80</v>
+      </c>
+      <c r="Q37">
+        <v>90</v>
+      </c>
+      <c r="R37">
+        <v>-2</v>
+      </c>
+      <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="U37">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="V37">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4355,8 +6032,26 @@
       <c r="M38">
         <v>1378429475386</v>
       </c>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4373,7 +6068,7 @@
         <v>-2500</v>
       </c>
       <c r="F39">
-        <v>-1.09</v>
+        <v>-1.0900000000000001</v>
       </c>
       <c r="G39">
         <v>10730401</v>
@@ -4400,10 +6095,34 @@
         <v>0.06</v>
       </c>
       <c r="O39">
-        <v>0.0013</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>1.2999999999999999E-3</v>
+      </c>
+      <c r="P39">
+        <v>80</v>
+      </c>
+      <c r="Q39">
+        <v>90</v>
+      </c>
+      <c r="R39">
+        <v>4</v>
+      </c>
+      <c r="S39">
+        <v>2</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="V39">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4447,10 +6166,34 @@
         <v>57.24</v>
       </c>
       <c r="O40">
-        <v>0.7516</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>0.75160000000000005</v>
+      </c>
+      <c r="P40">
+        <v>50</v>
+      </c>
+      <c r="Q40">
+        <v>70</v>
+      </c>
+      <c r="R40">
+        <v>-4</v>
+      </c>
+      <c r="S40">
+        <v>-2</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="V40">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4494,10 +6237,34 @@
         <v>62.53</v>
       </c>
       <c r="O41">
-        <v>0.8908</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>0.89080000000000004</v>
+      </c>
+      <c r="P41">
+        <v>50</v>
+      </c>
+      <c r="Q41">
+        <v>70</v>
+      </c>
+      <c r="R41">
+        <v>-4</v>
+      </c>
+      <c r="S41">
+        <v>-4</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="V41">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4541,10 +6308,34 @@
         <v>1.92</v>
       </c>
       <c r="O42">
-        <v>0.0206</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>2.06E-2</v>
+      </c>
+      <c r="P42">
+        <v>80</v>
+      </c>
+      <c r="Q42">
+        <v>90</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="V42">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4585,13 +6376,37 @@
         <v>2680084687965</v>
       </c>
       <c r="N43">
-        <v>2.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="O43">
-        <v>0.0463</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>4.6300000000000001E-2</v>
+      </c>
+      <c r="P43">
+        <v>80</v>
+      </c>
+      <c r="Q43">
+        <v>90</v>
+      </c>
+      <c r="R43">
+        <v>4</v>
+      </c>
+      <c r="S43">
+        <v>4</v>
+      </c>
+      <c r="T43">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="U43">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="V43">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4637,8 +6452,32 @@
       <c r="O44">
         <v>0.1396</v>
       </c>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="P44">
+        <v>70</v>
+      </c>
+      <c r="Q44">
+        <v>80</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="V44">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4682,10 +6521,34 @@
         <v>60.74</v>
       </c>
       <c r="O45">
-        <v>1.0996</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15">
+        <v>1.0995999999999999</v>
+      </c>
+      <c r="P45">
+        <v>50</v>
+      </c>
+      <c r="Q45">
+        <v>60</v>
+      </c>
+      <c r="R45">
+        <v>-4</v>
+      </c>
+      <c r="S45">
+        <v>-4</v>
+      </c>
+      <c r="T45">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="U45">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="V45">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4729,10 +6592,34 @@
         <v>11.39</v>
       </c>
       <c r="O46">
-        <v>0.2332</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15">
+        <v>0.23319999999999999</v>
+      </c>
+      <c r="P46">
+        <v>70</v>
+      </c>
+      <c r="Q46">
+        <v>80</v>
+      </c>
+      <c r="R46">
+        <v>-2</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="U46">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="V46">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4776,10 +6663,34 @@
         <v>4.04</v>
       </c>
       <c r="O47">
-        <v>0.0789</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15">
+        <v>7.8899999999999998E-2</v>
+      </c>
+      <c r="P47">
+        <v>80</v>
+      </c>
+      <c r="Q47">
+        <v>90</v>
+      </c>
+      <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>2</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="V47">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.45">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4796,7 +6707,7 @@
         <v>1600</v>
       </c>
       <c r="F48">
-        <v>4.11</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="G48">
         <v>7746779</v>
@@ -4823,10 +6734,34 @@
         <v>41.99</v>
       </c>
       <c r="O48">
-        <v>0.8138</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15">
+        <v>0.81379999999999997</v>
+      </c>
+      <c r="P48">
+        <v>50</v>
+      </c>
+      <c r="Q48">
+        <v>70</v>
+      </c>
+      <c r="R48">
+        <v>-4</v>
+      </c>
+      <c r="S48">
+        <v>-4</v>
+      </c>
+      <c r="T48">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="V48">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4870,10 +6805,34 @@
         <v>0.37</v>
       </c>
       <c r="O49">
-        <v>0.0004</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="P49">
+        <v>80</v>
+      </c>
+      <c r="Q49">
+        <v>90</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>4</v>
+      </c>
+      <c r="T49">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4917,10 +6876,34 @@
         <v>20.83</v>
       </c>
       <c r="O50">
-        <v>0.2486</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15">
+        <v>0.24859999999999999</v>
+      </c>
+      <c r="P50">
+        <v>60</v>
+      </c>
+      <c r="Q50">
+        <v>80</v>
+      </c>
+      <c r="R50">
+        <v>-2</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="V50">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -4964,10 +6947,34 @@
         <v>0.61</v>
       </c>
       <c r="O51">
-        <v>0.0092</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="P51">
+        <v>80</v>
+      </c>
+      <c r="Q51">
+        <v>90</v>
+      </c>
+      <c r="R51">
+        <v>4</v>
+      </c>
+      <c r="S51">
+        <v>4</v>
+      </c>
+      <c r="T51">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="U51">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="V51">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5011,10 +7018,34 @@
         <v>183.86</v>
       </c>
       <c r="O52">
-        <v>0.785</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="P52">
+        <v>40</v>
+      </c>
+      <c r="Q52">
+        <v>70</v>
+      </c>
+      <c r="R52">
+        <v>-4</v>
+      </c>
+      <c r="S52">
+        <v>-4</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="V52">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5060,8 +7091,32 @@
       <c r="O53">
         <v>0.1547</v>
       </c>
-    </row>
-    <row r="54" spans="1:15">
+      <c r="P53">
+        <v>70</v>
+      </c>
+      <c r="Q53">
+        <v>80</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="V53">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5105,10 +7160,34 @@
         <v>10.46</v>
       </c>
       <c r="O54">
-        <v>0.2154</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15">
+        <v>0.21540000000000001</v>
+      </c>
+      <c r="P54">
+        <v>70</v>
+      </c>
+      <c r="Q54">
+        <v>80</v>
+      </c>
+      <c r="R54">
+        <v>-4</v>
+      </c>
+      <c r="S54">
+        <v>-4</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="V54">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5154,8 +7233,32 @@
       <c r="O55">
         <v>1.2381</v>
       </c>
-    </row>
-    <row r="56" spans="1:15">
+      <c r="P55">
+        <v>40</v>
+      </c>
+      <c r="Q55">
+        <v>60</v>
+      </c>
+      <c r="R55">
+        <v>-4</v>
+      </c>
+      <c r="S55">
+        <v>-4</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="V55">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5201,8 +7304,32 @@
       <c r="O56">
         <v>0.2465</v>
       </c>
-    </row>
-    <row r="57" spans="1:15">
+      <c r="P56">
+        <v>70</v>
+      </c>
+      <c r="Q56">
+        <v>80</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="V56">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5243,13 +7370,37 @@
         <v>9320113000000</v>
       </c>
       <c r="N57">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="O57">
-        <v>0.0161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15">
+        <v>1.61E-2</v>
+      </c>
+      <c r="P57">
+        <v>80</v>
+      </c>
+      <c r="Q57">
+        <v>90</v>
+      </c>
+      <c r="R57">
+        <v>2</v>
+      </c>
+      <c r="S57">
+        <v>2</v>
+      </c>
+      <c r="T57">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5293,10 +7444,34 @@
         <v>0.21</v>
       </c>
       <c r="O58">
-        <v>0.0044</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="P58">
+        <v>80</v>
+      </c>
+      <c r="Q58">
+        <v>90</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="V58">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5340,10 +7515,34 @@
         <v>16.18</v>
       </c>
       <c r="O59">
-        <v>0.3304</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15">
+        <v>0.33040000000000003</v>
+      </c>
+      <c r="P59">
+        <v>70</v>
+      </c>
+      <c r="Q59">
+        <v>80</v>
+      </c>
+      <c r="R59">
+        <v>-2</v>
+      </c>
+      <c r="S59">
+        <v>-2</v>
+      </c>
+      <c r="T59">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="V59">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5387,10 +7586,34 @@
         <v>33.65</v>
       </c>
       <c r="O60">
-        <v>0.6827</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15">
+        <v>0.68269999999999997</v>
+      </c>
+      <c r="P60">
+        <v>60</v>
+      </c>
+      <c r="Q60">
+        <v>70</v>
+      </c>
+      <c r="R60">
+        <v>-2</v>
+      </c>
+      <c r="S60">
+        <v>-2</v>
+      </c>
+      <c r="T60">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="V60">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5434,10 +7657,34 @@
         <v>0.09</v>
       </c>
       <c r="O61">
-        <v>0.0019</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15">
+        <v>1.9E-3</v>
+      </c>
+      <c r="P61">
+        <v>80</v>
+      </c>
+      <c r="Q61">
+        <v>90</v>
+      </c>
+      <c r="R61">
+        <v>2</v>
+      </c>
+      <c r="S61">
+        <v>2</v>
+      </c>
+      <c r="T61">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5481,10 +7728,34 @@
         <v>3.11</v>
       </c>
       <c r="O62">
-        <v>0.0649</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15">
+        <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="P62">
+        <v>80</v>
+      </c>
+      <c r="Q62">
+        <v>90</v>
+      </c>
+      <c r="R62">
+        <v>2</v>
+      </c>
+      <c r="S62">
+        <v>2</v>
+      </c>
+      <c r="T62">
+        <f t="shared" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="U62">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="V62">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5530,8 +7801,32 @@
       <c r="O63">
         <v>4.1795</v>
       </c>
-    </row>
-    <row r="64" spans="1:15">
+      <c r="P63">
+        <v>40</v>
+      </c>
+      <c r="Q63">
+        <v>50</v>
+      </c>
+      <c r="R63">
+        <v>-4</v>
+      </c>
+      <c r="S63">
+        <v>-4</v>
+      </c>
+      <c r="T63">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="U63">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="V63">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5569,10 +7864,31 @@
         <v>268000000000</v>
       </c>
       <c r="O64">
-        <v>5.9194</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15">
+        <v>5.9194000000000004</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>50</v>
+      </c>
+      <c r="S64">
+        <v>-4</v>
+      </c>
+      <c r="T64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U64">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="V64">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5616,10 +7932,34 @@
         <v>198.13</v>
       </c>
       <c r="O65">
-        <v>3911.3518</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15">
+        <v>3911.3517999999999</v>
+      </c>
+      <c r="P65">
+        <v>40</v>
+      </c>
+      <c r="Q65">
+        <v>10</v>
+      </c>
+      <c r="R65">
+        <v>-4</v>
+      </c>
+      <c r="S65">
+        <v>-4</v>
+      </c>
+      <c r="T65">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="U65">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5663,10 +8003,34 @@
         <v>3.66</v>
       </c>
       <c r="O66">
-        <v>0.07489999999999999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="P66">
+        <v>80</v>
+      </c>
+      <c r="Q66">
+        <v>90</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="U66">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="V66">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5712,8 +8076,32 @@
       <c r="O67">
         <v>0.1736</v>
       </c>
-    </row>
-    <row r="68" spans="1:15">
+      <c r="P67">
+        <v>70</v>
+      </c>
+      <c r="Q67">
+        <v>80</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <f t="shared" ref="T67:T130" si="3">P67+R67</f>
+        <v>70</v>
+      </c>
+      <c r="U67">
+        <f t="shared" ref="U67:U130" si="4">Q67+S67</f>
+        <v>80</v>
+      </c>
+      <c r="V67">
+        <f t="shared" ref="V67:V130" si="5">(T67+U67)/2</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5759,8 +8147,32 @@
       <c r="O68">
         <v>12.5603</v>
       </c>
-    </row>
-    <row r="69" spans="1:15">
+      <c r="P68">
+        <v>80</v>
+      </c>
+      <c r="Q68">
+        <v>40</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>-4</v>
+      </c>
+      <c r="T68">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="U68">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="V68">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5804,10 +8216,34 @@
         <v>191.79</v>
       </c>
       <c r="O69">
-        <v>85.1183</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15">
+        <v>85.118300000000005</v>
+      </c>
+      <c r="P69">
+        <v>40</v>
+      </c>
+      <c r="Q69">
+        <v>40</v>
+      </c>
+      <c r="R69">
+        <v>-4</v>
+      </c>
+      <c r="S69">
+        <v>-4</v>
+      </c>
+      <c r="T69">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="U69">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="V69">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5851,10 +8287,34 @@
         <v>3.41</v>
       </c>
       <c r="O70">
-        <v>0.0844</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15">
+        <v>8.4400000000000003E-2</v>
+      </c>
+      <c r="P70">
+        <v>80</v>
+      </c>
+      <c r="Q70">
+        <v>90</v>
+      </c>
+      <c r="R70">
+        <v>2</v>
+      </c>
+      <c r="S70">
+        <v>2</v>
+      </c>
+      <c r="T70">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="U70">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="V70">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5898,10 +8358,34 @@
         <v>12.88</v>
       </c>
       <c r="O71">
-        <v>0.2623</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15">
+        <v>0.26229999999999998</v>
+      </c>
+      <c r="P71">
+        <v>70</v>
+      </c>
+      <c r="Q71">
+        <v>80</v>
+      </c>
+      <c r="R71">
+        <v>0</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="U71">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="V71">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5942,13 +8426,37 @@
         <v>41700000000</v>
       </c>
       <c r="N72">
-        <v>32137.04</v>
+        <v>32137.040000000001</v>
       </c>
       <c r="O72">
-        <v>4916.8681</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15">
+        <v>4916.8680999999997</v>
+      </c>
+      <c r="P72">
+        <v>10</v>
+      </c>
+      <c r="Q72">
+        <v>10</v>
+      </c>
+      <c r="R72">
+        <v>-4</v>
+      </c>
+      <c r="S72">
+        <v>-4</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="U72">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="V72">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5992,10 +8500,34 @@
         <v>37.96</v>
       </c>
       <c r="O73">
-        <v>0.1854</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15">
+        <v>0.18540000000000001</v>
+      </c>
+      <c r="P73">
+        <v>60</v>
+      </c>
+      <c r="Q73">
+        <v>80</v>
+      </c>
+      <c r="R73">
+        <v>-2</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="U73">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="V73">
+        <f t="shared" si="5"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -6039,10 +8571,34 @@
         <v>0.01</v>
       </c>
       <c r="O74">
-        <v>0.0001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15">
+        <v>1E-4</v>
+      </c>
+      <c r="P74">
+        <v>80</v>
+      </c>
+      <c r="Q74">
+        <v>90</v>
+      </c>
+      <c r="R74">
+        <v>4</v>
+      </c>
+      <c r="S74">
+        <v>4</v>
+      </c>
+      <c r="T74">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="U74">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="V74">
+        <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -6086,10 +8642,34 @@
         <v>0.16</v>
       </c>
       <c r="O75">
-        <v>0.3295</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15">
+        <v>0.32950000000000002</v>
+      </c>
+      <c r="P75">
+        <v>80</v>
+      </c>
+      <c r="Q75">
+        <v>80</v>
+      </c>
+      <c r="R75">
+        <v>2</v>
+      </c>
+      <c r="S75">
+        <v>-2</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -6133,10 +8713,34 @@
         <v>0.99</v>
       </c>
       <c r="O76">
-        <v>5.6948</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15">
+        <v>5.6947999999999999</v>
+      </c>
+      <c r="P76">
+        <v>80</v>
+      </c>
+      <c r="Q76">
+        <v>50</v>
+      </c>
+      <c r="R76">
+        <v>4</v>
+      </c>
+      <c r="S76">
+        <v>-4</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -6177,13 +8781,37 @@
         <v>2102895000000</v>
       </c>
       <c r="N77">
-        <v>81.73999999999999</v>
+        <v>81.739999999999995</v>
       </c>
       <c r="O77">
-        <v>24.399</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15">
+        <v>24.399000000000001</v>
+      </c>
+      <c r="P77">
+        <v>50</v>
+      </c>
+      <c r="Q77">
+        <v>40</v>
+      </c>
+      <c r="R77">
+        <v>-4</v>
+      </c>
+      <c r="S77">
+        <v>-4</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -6227,10 +8855,34 @@
         <v>0.06</v>
       </c>
       <c r="O78">
-        <v>0.0011</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="P78">
+        <v>80</v>
+      </c>
+      <c r="Q78">
+        <v>90</v>
+      </c>
+      <c r="R78">
+        <v>4</v>
+      </c>
+      <c r="S78">
+        <v>4</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -6264,8 +8916,26 @@
       <c r="M79">
         <v>306286000000</v>
       </c>
-    </row>
-    <row r="80" spans="1:15">
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -6309,10 +8979,34 @@
         <v>5.61</v>
       </c>
       <c r="O80">
-        <v>0.09130000000000001</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+        <v>9.1300000000000006E-2</v>
+      </c>
+      <c r="P80">
+        <v>70</v>
+      </c>
+      <c r="Q80">
+        <v>90</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>2</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="V80">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -6358,8 +9052,32 @@
       <c r="O81">
         <v>0.4894</v>
       </c>
-    </row>
-    <row r="82" spans="1:15">
+      <c r="P81">
+        <v>60</v>
+      </c>
+      <c r="Q81">
+        <v>80</v>
+      </c>
+      <c r="R81">
+        <v>-2</v>
+      </c>
+      <c r="S81">
+        <v>-2</v>
+      </c>
+      <c r="T81">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="U81">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="V81">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -6403,10 +9121,34 @@
         <v>1.22</v>
       </c>
       <c r="O82">
-        <v>0.0228</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="P82">
+        <v>80</v>
+      </c>
+      <c r="Q82">
+        <v>90</v>
+      </c>
+      <c r="R82">
+        <v>-2</v>
+      </c>
+      <c r="S82">
+        <v>0</v>
+      </c>
+      <c r="T82">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="U82">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="V82">
+        <f t="shared" si="5"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -6423,7 +9165,7 @@
         <v>-500</v>
       </c>
       <c r="F83">
-        <v>-0.29</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="G83">
         <v>3889505</v>
@@ -6450,10 +9192,34 @@
         <v>3.28</v>
       </c>
       <c r="O83">
-        <v>0.0559</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
+        <v>5.5899999999999998E-2</v>
+      </c>
+      <c r="P83">
+        <v>80</v>
+      </c>
+      <c r="Q83">
+        <v>90</v>
+      </c>
+      <c r="R83">
+        <v>2</v>
+      </c>
+      <c r="S83">
+        <v>2</v>
+      </c>
+      <c r="T83">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="U83">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="V83">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -6497,10 +9263,34 @@
         <v>8.07</v>
       </c>
       <c r="O84">
-        <v>0.1592</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+        <v>0.15920000000000001</v>
+      </c>
+      <c r="P84">
+        <v>70</v>
+      </c>
+      <c r="Q84">
+        <v>80</v>
+      </c>
+      <c r="R84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>0</v>
+      </c>
+      <c r="T84">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="U84">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="V84">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -6517,7 +9307,7 @@
         <v>100</v>
       </c>
       <c r="F85">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G85">
         <v>3729523</v>
@@ -6531,8 +9321,26 @@
       <c r="J85" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="86" spans="1:15">
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="T85">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U85">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V85">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -6566,8 +9374,26 @@
       <c r="M86">
         <v>187327145261</v>
       </c>
-    </row>
-    <row r="87" spans="1:15">
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="T86">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U86">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V86">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -6611,10 +9437,34 @@
         <v>0.01</v>
       </c>
       <c r="O87">
-        <v>0.0001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
+        <v>1E-4</v>
+      </c>
+      <c r="P87">
+        <v>80</v>
+      </c>
+      <c r="Q87">
+        <v>90</v>
+      </c>
+      <c r="R87">
+        <v>4</v>
+      </c>
+      <c r="S87">
+        <v>4</v>
+      </c>
+      <c r="T87">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="U87">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="V87">
+        <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -6658,10 +9508,34 @@
         <v>0.02</v>
       </c>
       <c r="O88">
-        <v>52.0066</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
+        <v>52.006599999999999</v>
+      </c>
+      <c r="P88">
+        <v>80</v>
+      </c>
+      <c r="Q88">
+        <v>40</v>
+      </c>
+      <c r="R88">
+        <v>4</v>
+      </c>
+      <c r="S88">
+        <v>-4</v>
+      </c>
+      <c r="T88">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="U88">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="V88">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -6705,10 +9579,34 @@
         <v>2.98</v>
       </c>
       <c r="O89">
-        <v>0.0569</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
+        <v>5.6899999999999999E-2</v>
+      </c>
+      <c r="P89">
+        <v>80</v>
+      </c>
+      <c r="Q89">
+        <v>90</v>
+      </c>
+      <c r="R89">
+        <v>-2</v>
+      </c>
+      <c r="S89">
+        <v>-2</v>
+      </c>
+      <c r="T89">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="U89">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="V89">
+        <f t="shared" si="5"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -6748,8 +9646,29 @@
       <c r="N90">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="91" spans="1:15">
+      <c r="P90">
+        <v>80</v>
+      </c>
+      <c r="Q90">
+        <v>0</v>
+      </c>
+      <c r="R90">
+        <v>4</v>
+      </c>
+      <c r="T90">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="U90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V90">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -6787,10 +9706,31 @@
         <v>461838982032</v>
       </c>
       <c r="N91">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="P91">
+        <v>80</v>
+      </c>
+      <c r="Q91">
+        <v>0</v>
+      </c>
+      <c r="R91">
+        <v>4</v>
+      </c>
+      <c r="T91">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="U91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <f t="shared" si="5"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -6836,8 +9776,32 @@
       <c r="O92">
         <v>0.8115</v>
       </c>
-    </row>
-    <row r="93" spans="1:15">
+      <c r="P92">
+        <v>60</v>
+      </c>
+      <c r="Q92">
+        <v>70</v>
+      </c>
+      <c r="R92">
+        <v>-2</v>
+      </c>
+      <c r="S92">
+        <v>-4</v>
+      </c>
+      <c r="T92">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="U92">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="V92">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -6881,10 +9845,34 @@
         <v>0.7</v>
       </c>
       <c r="O93">
-        <v>0.0142</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+        <v>1.4200000000000001E-2</v>
+      </c>
+      <c r="P93">
+        <v>80</v>
+      </c>
+      <c r="Q93">
+        <v>90</v>
+      </c>
+      <c r="R93">
+        <v>2</v>
+      </c>
+      <c r="S93">
+        <v>0</v>
+      </c>
+      <c r="T93">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="U93">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="V93">
+        <f t="shared" si="5"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -6928,10 +9916,34 @@
         <v>30.02</v>
       </c>
       <c r="O94">
-        <v>0.6199</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+        <v>0.61990000000000001</v>
+      </c>
+      <c r="P94">
+        <v>60</v>
+      </c>
+      <c r="Q94">
+        <v>70</v>
+      </c>
+      <c r="R94">
+        <v>-2</v>
+      </c>
+      <c r="S94">
+        <v>-2</v>
+      </c>
+      <c r="T94">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="U94">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="V94">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -6977,8 +9989,32 @@
       <c r="O95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:15">
+      <c r="P95">
+        <v>80</v>
+      </c>
+      <c r="Q95">
+        <v>90</v>
+      </c>
+      <c r="R95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>4</v>
+      </c>
+      <c r="T95">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="U95">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="V95">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -7012,8 +10048,26 @@
       <c r="M96">
         <v>684456953404</v>
       </c>
-    </row>
-    <row r="97" spans="1:15">
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="T96">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U96">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V96">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -7057,10 +10111,34 @@
         <v>173.18</v>
       </c>
       <c r="O97">
-        <v>3.0832</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15">
+        <v>3.0832000000000002</v>
+      </c>
+      <c r="P97">
+        <v>40</v>
+      </c>
+      <c r="Q97">
+        <v>50</v>
+      </c>
+      <c r="R97">
+        <v>-4</v>
+      </c>
+      <c r="S97">
+        <v>-4</v>
+      </c>
+      <c r="T97">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="U97">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="V97">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -7104,10 +10182,34 @@
         <v>54.01</v>
       </c>
       <c r="O98">
-        <v>0.8746</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15">
+        <v>0.87460000000000004</v>
+      </c>
+      <c r="P98">
+        <v>50</v>
+      </c>
+      <c r="Q98">
+        <v>70</v>
+      </c>
+      <c r="R98">
+        <v>-4</v>
+      </c>
+      <c r="S98">
+        <v>-4</v>
+      </c>
+      <c r="T98">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="U98">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="V98">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -7138,8 +10240,26 @@
       <c r="J99" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="100" spans="1:15">
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="T99">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U99">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V99">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -7183,10 +10303,34 @@
         <v>0.77</v>
       </c>
       <c r="O100">
-        <v>0.0154</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15">
+        <v>1.54E-2</v>
+      </c>
+      <c r="P100">
+        <v>80</v>
+      </c>
+      <c r="Q100">
+        <v>90</v>
+      </c>
+      <c r="R100">
+        <v>4</v>
+      </c>
+      <c r="S100">
+        <v>4</v>
+      </c>
+      <c r="T100">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="U100">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="V100">
+        <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -7230,10 +10374,34 @@
         <v>1.75</v>
       </c>
       <c r="O101">
-        <v>0.0349</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15">
+        <v>3.49E-2</v>
+      </c>
+      <c r="P101">
+        <v>80</v>
+      </c>
+      <c r="Q101">
+        <v>90</v>
+      </c>
+      <c r="R101">
+        <v>4</v>
+      </c>
+      <c r="S101">
+        <v>4</v>
+      </c>
+      <c r="T101">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="U101">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="V101">
+        <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -7277,10 +10445,34 @@
         <v>7.72</v>
       </c>
       <c r="O102">
-        <v>0.1523</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15">
+        <v>0.15229999999999999</v>
+      </c>
+      <c r="P102">
+        <v>70</v>
+      </c>
+      <c r="Q102">
+        <v>80</v>
+      </c>
+      <c r="R102">
+        <v>-2</v>
+      </c>
+      <c r="S102">
+        <v>-2</v>
+      </c>
+      <c r="T102">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="U102">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="V102">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -7326,8 +10518,32 @@
       <c r="O103">
         <v>0.2384</v>
       </c>
-    </row>
-    <row r="104" spans="1:15">
+      <c r="P103">
+        <v>70</v>
+      </c>
+      <c r="Q103">
+        <v>80</v>
+      </c>
+      <c r="R103">
+        <v>0</v>
+      </c>
+      <c r="S103">
+        <v>0</v>
+      </c>
+      <c r="T103">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="U103">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="V103">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -7358,8 +10574,26 @@
       <c r="J104" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="105" spans="1:15">
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104">
+        <v>0</v>
+      </c>
+      <c r="T104">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U104">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V104">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -7393,8 +10627,26 @@
       <c r="M105">
         <v>2189076457665</v>
       </c>
-    </row>
-    <row r="106" spans="1:15">
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105">
+        <v>0</v>
+      </c>
+      <c r="T105">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U105">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V105">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -7434,8 +10686,29 @@
       <c r="N106">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="107" spans="1:15">
+      <c r="P106">
+        <v>80</v>
+      </c>
+      <c r="Q106">
+        <v>0</v>
+      </c>
+      <c r="R106">
+        <v>0</v>
+      </c>
+      <c r="T106">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="U106">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V106">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -7479,10 +10752,34 @@
         <v>5.12</v>
       </c>
       <c r="O107">
-        <v>0.0914</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15">
+        <v>9.1399999999999995E-2</v>
+      </c>
+      <c r="P107">
+        <v>70</v>
+      </c>
+      <c r="Q107">
+        <v>90</v>
+      </c>
+      <c r="R107">
+        <v>2</v>
+      </c>
+      <c r="S107">
+        <v>2</v>
+      </c>
+      <c r="T107">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="U107">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="V107">
+        <f t="shared" si="5"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -7526,10 +10823,34 @@
         <v>0.31</v>
       </c>
       <c r="O108">
-        <v>0.0064</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="P108">
+        <v>80</v>
+      </c>
+      <c r="Q108">
+        <v>90</v>
+      </c>
+      <c r="R108">
+        <v>4</v>
+      </c>
+      <c r="S108">
+        <v>2</v>
+      </c>
+      <c r="T108">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="U108">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="V108">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -7546,7 +10867,7 @@
         <v>150</v>
       </c>
       <c r="F109">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G109">
         <v>2881357</v>
@@ -7573,10 +10894,34 @@
         <v>0.01</v>
       </c>
       <c r="O109">
-        <v>0.0192</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15">
+        <v>1.9199999999999998E-2</v>
+      </c>
+      <c r="P109">
+        <v>80</v>
+      </c>
+      <c r="Q109">
+        <v>90</v>
+      </c>
+      <c r="R109">
+        <v>4</v>
+      </c>
+      <c r="S109">
+        <v>4</v>
+      </c>
+      <c r="T109">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="U109">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="V109">
+        <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -7620,10 +10965,34 @@
         <v>20.37</v>
       </c>
       <c r="O110">
-        <v>106.3397</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15">
+        <v>106.33969999999999</v>
+      </c>
+      <c r="P110">
+        <v>60</v>
+      </c>
+      <c r="Q110">
+        <v>30</v>
+      </c>
+      <c r="R110">
+        <v>-4</v>
+      </c>
+      <c r="S110">
+        <v>-4</v>
+      </c>
+      <c r="T110">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="U110">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="V110">
+        <f t="shared" si="5"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -7667,10 +11036,34 @@
         <v>2.61</v>
       </c>
       <c r="O111">
-        <v>0.0538</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15">
+        <v>5.3800000000000001E-2</v>
+      </c>
+      <c r="P111">
+        <v>80</v>
+      </c>
+      <c r="Q111">
+        <v>90</v>
+      </c>
+      <c r="R111">
+        <v>2</v>
+      </c>
+      <c r="S111">
+        <v>2</v>
+      </c>
+      <c r="T111">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="U111">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="V111">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -7716,8 +11109,32 @@
       <c r="O112">
         <v>4500.7689</v>
       </c>
-    </row>
-    <row r="113" spans="1:15">
+      <c r="P112">
+        <v>80</v>
+      </c>
+      <c r="Q112">
+        <v>10</v>
+      </c>
+      <c r="R112">
+        <v>2</v>
+      </c>
+      <c r="S112">
+        <v>-4</v>
+      </c>
+      <c r="T112">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="U112">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="V112">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -7761,10 +11178,34 @@
         <v>5.33</v>
       </c>
       <c r="O113">
-        <v>0.09660000000000001</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
+        <v>9.6600000000000005E-2</v>
+      </c>
+      <c r="P113">
+        <v>70</v>
+      </c>
+      <c r="Q113">
+        <v>90</v>
+      </c>
+      <c r="R113">
+        <v>2</v>
+      </c>
+      <c r="S113">
+        <v>2</v>
+      </c>
+      <c r="T113">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="U113">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="V113">
+        <f t="shared" si="5"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -7808,10 +11249,34 @@
         <v>0.03</v>
       </c>
       <c r="O114">
-        <v>226.5141</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15">
+        <v>226.51410000000001</v>
+      </c>
+      <c r="P114">
+        <v>80</v>
+      </c>
+      <c r="Q114">
+        <v>30</v>
+      </c>
+      <c r="R114">
+        <v>4</v>
+      </c>
+      <c r="S114">
+        <v>-4</v>
+      </c>
+      <c r="T114">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="U114">
+        <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="V114">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -7855,10 +11320,34 @@
         <v>0.24</v>
       </c>
       <c r="O115">
-        <v>0.008200000000000001</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15">
+        <v>8.2000000000000007E-3</v>
+      </c>
+      <c r="P115">
+        <v>80</v>
+      </c>
+      <c r="Q115">
+        <v>90</v>
+      </c>
+      <c r="R115">
+        <v>2</v>
+      </c>
+      <c r="S115">
+        <v>2</v>
+      </c>
+      <c r="T115">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="U115">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="V115">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -7902,10 +11391,34 @@
         <v>700.27</v>
       </c>
       <c r="O116">
-        <v>2.3918</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
+        <v>2.3917999999999999</v>
+      </c>
+      <c r="P116">
+        <v>20</v>
+      </c>
+      <c r="Q116">
+        <v>50</v>
+      </c>
+      <c r="R116">
+        <v>-4</v>
+      </c>
+      <c r="S116">
+        <v>-4</v>
+      </c>
+      <c r="T116">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="U116">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+      <c r="V116">
+        <f t="shared" si="5"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -7949,10 +11462,34 @@
         <v>26.44</v>
       </c>
       <c r="O117">
-        <v>0.5374</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
+        <v>0.53739999999999999</v>
+      </c>
+      <c r="P117">
+        <v>60</v>
+      </c>
+      <c r="Q117">
+        <v>70</v>
+      </c>
+      <c r="R117">
+        <v>-2</v>
+      </c>
+      <c r="S117">
+        <v>-2</v>
+      </c>
+      <c r="T117">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="U117">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="V117">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -7998,8 +11535,32 @@
       <c r="O118">
         <v>0.1719</v>
       </c>
-    </row>
-    <row r="119" spans="1:15">
+      <c r="P118">
+        <v>70</v>
+      </c>
+      <c r="Q118">
+        <v>80</v>
+      </c>
+      <c r="R118">
+        <v>-2</v>
+      </c>
+      <c r="S118">
+        <v>-2</v>
+      </c>
+      <c r="T118">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="U118">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="V118">
+        <f t="shared" si="5"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -8043,10 +11604,34 @@
         <v>2.39</v>
       </c>
       <c r="O119">
-        <v>0.0445</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="P119">
+        <v>80</v>
+      </c>
+      <c r="Q119">
+        <v>90</v>
+      </c>
+      <c r="R119">
+        <v>2</v>
+      </c>
+      <c r="S119">
+        <v>4</v>
+      </c>
+      <c r="T119">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="U119">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="V119">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -8090,10 +11675,34 @@
         <v>31.68</v>
       </c>
       <c r="O120">
-        <v>0.395</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="P120">
+        <v>60</v>
+      </c>
+      <c r="Q120">
+        <v>80</v>
+      </c>
+      <c r="R120">
+        <v>-2</v>
+      </c>
+      <c r="S120">
+        <v>-2</v>
+      </c>
+      <c r="T120">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="U120">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="V120">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -8137,10 +11746,34 @@
         <v>3.13</v>
       </c>
       <c r="O121">
-        <v>0.0667</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15">
+        <v>6.6699999999999995E-2</v>
+      </c>
+      <c r="P121">
+        <v>80</v>
+      </c>
+      <c r="Q121">
+        <v>90</v>
+      </c>
+      <c r="R121">
+        <v>-4</v>
+      </c>
+      <c r="S121">
+        <v>-4</v>
+      </c>
+      <c r="T121">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="U121">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="V121">
+        <f t="shared" si="5"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -8184,10 +11817,34 @@
         <v>7.97</v>
       </c>
       <c r="O122">
-        <v>0.1586</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15">
+        <v>0.15859999999999999</v>
+      </c>
+      <c r="P122">
+        <v>70</v>
+      </c>
+      <c r="Q122">
+        <v>80</v>
+      </c>
+      <c r="R122">
+        <v>-2</v>
+      </c>
+      <c r="S122">
+        <v>0</v>
+      </c>
+      <c r="T122">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="U122">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="V122">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -8231,10 +11888,34 @@
         <v>2.27</v>
       </c>
       <c r="O123">
-        <v>0.0459</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15">
+        <v>4.5900000000000003E-2</v>
+      </c>
+      <c r="P123">
+        <v>80</v>
+      </c>
+      <c r="Q123">
+        <v>90</v>
+      </c>
+      <c r="R123">
+        <v>4</v>
+      </c>
+      <c r="S123">
+        <v>4</v>
+      </c>
+      <c r="T123">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="U123">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="V123">
+        <f t="shared" si="5"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -8278,10 +11959,34 @@
         <v>3.05</v>
       </c>
       <c r="O124">
-        <v>0.0606</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15">
+        <v>6.0600000000000001E-2</v>
+      </c>
+      <c r="P124">
+        <v>80</v>
+      </c>
+      <c r="Q124">
+        <v>90</v>
+      </c>
+      <c r="R124">
+        <v>2</v>
+      </c>
+      <c r="S124">
+        <v>2</v>
+      </c>
+      <c r="T124">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="U124">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="V124">
+        <f t="shared" si="5"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -8325,10 +12030,34 @@
         <v>10.85</v>
       </c>
       <c r="O125">
-        <v>0.2196</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15">
+        <v>0.21959999999999999</v>
+      </c>
+      <c r="P125">
+        <v>70</v>
+      </c>
+      <c r="Q125">
+        <v>80</v>
+      </c>
+      <c r="R125">
+        <v>-2</v>
+      </c>
+      <c r="S125">
+        <v>0</v>
+      </c>
+      <c r="T125">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="U125">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="V125">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -8372,10 +12101,34 @@
         <v>23.32</v>
       </c>
       <c r="O126">
-        <v>0.4348</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15">
+        <v>0.43480000000000002</v>
+      </c>
+      <c r="P126">
+        <v>60</v>
+      </c>
+      <c r="Q126">
+        <v>80</v>
+      </c>
+      <c r="R126">
+        <v>-2</v>
+      </c>
+      <c r="S126">
+        <v>-2</v>
+      </c>
+      <c r="T126">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="U126">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="V126">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -8419,10 +12172,34 @@
         <v>0.12</v>
       </c>
       <c r="O127">
-        <v>0.0009</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="P127">
+        <v>80</v>
+      </c>
+      <c r="Q127">
+        <v>90</v>
+      </c>
+      <c r="R127">
+        <v>2</v>
+      </c>
+      <c r="S127">
+        <v>4</v>
+      </c>
+      <c r="T127">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="U127">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="V127">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -8466,10 +12243,34 @@
         <v>7.01</v>
       </c>
       <c r="O128">
-        <v>0.1319</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15">
+        <v>0.13189999999999999</v>
+      </c>
+      <c r="P128">
+        <v>70</v>
+      </c>
+      <c r="Q128">
+        <v>80</v>
+      </c>
+      <c r="R128">
+        <v>0</v>
+      </c>
+      <c r="S128">
+        <v>0</v>
+      </c>
+      <c r="T128">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="U128">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="V128">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -8513,10 +12314,34 @@
         <v>2.41</v>
       </c>
       <c r="O129">
-        <v>0.0483</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15">
+        <v>4.8300000000000003E-2</v>
+      </c>
+      <c r="P129">
+        <v>80</v>
+      </c>
+      <c r="Q129">
+        <v>90</v>
+      </c>
+      <c r="R129">
+        <v>2</v>
+      </c>
+      <c r="S129">
+        <v>4</v>
+      </c>
+      <c r="T129">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="U129">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="V129">
+        <f t="shared" si="5"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -8547,8 +12372,26 @@
       <c r="J130" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="131" spans="1:15">
+      <c r="P130">
+        <v>0</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="T130">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U130">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V130">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -8565,7 +12408,7 @@
         <v>550</v>
       </c>
       <c r="F131">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="G131">
         <v>2048923</v>
@@ -8592,10 +12435,34 @@
         <v>0.63</v>
       </c>
       <c r="O131">
-        <v>0.009599999999999999</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="P131">
+        <v>80</v>
+      </c>
+      <c r="Q131">
+        <v>90</v>
+      </c>
+      <c r="R131">
+        <v>4</v>
+      </c>
+      <c r="S131">
+        <v>4</v>
+      </c>
+      <c r="T131">
+        <f t="shared" ref="T131:T194" si="6">P131+R131</f>
+        <v>84</v>
+      </c>
+      <c r="U131">
+        <f t="shared" ref="U131:U194" si="7">Q131+S131</f>
+        <v>94</v>
+      </c>
+      <c r="V131">
+        <f t="shared" ref="V131:V194" si="8">(T131+U131)/2</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -8639,10 +12506,34 @@
         <v>2.31</v>
       </c>
       <c r="O132">
-        <v>0.0156</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15">
+        <v>1.5599999999999999E-2</v>
+      </c>
+      <c r="P132">
+        <v>80</v>
+      </c>
+      <c r="Q132">
+        <v>90</v>
+      </c>
+      <c r="R132">
+        <v>2</v>
+      </c>
+      <c r="S132">
+        <v>4</v>
+      </c>
+      <c r="T132">
+        <f t="shared" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="U132">
+        <f t="shared" si="7"/>
+        <v>94</v>
+      </c>
+      <c r="V132">
+        <f t="shared" si="8"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -8683,13 +12574,37 @@
         <v>165700000000</v>
       </c>
       <c r="N133">
-        <v>73.56999999999999</v>
+        <v>73.569999999999993</v>
       </c>
       <c r="O133">
         <v>1.4581</v>
       </c>
-    </row>
-    <row r="134" spans="1:15">
+      <c r="P133">
+        <v>50</v>
+      </c>
+      <c r="Q133">
+        <v>60</v>
+      </c>
+      <c r="R133">
+        <v>-4</v>
+      </c>
+      <c r="S133">
+        <v>-2</v>
+      </c>
+      <c r="T133">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="U133">
+        <f t="shared" si="7"/>
+        <v>58</v>
+      </c>
+      <c r="V133">
+        <f t="shared" si="8"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -8729,8 +12644,29 @@
       <c r="N134">
         <v>255.12</v>
       </c>
-    </row>
-    <row r="135" spans="1:15">
+      <c r="P134">
+        <v>40</v>
+      </c>
+      <c r="Q134">
+        <v>0</v>
+      </c>
+      <c r="R134">
+        <v>-4</v>
+      </c>
+      <c r="T134">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="U134">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V134">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -8764,8 +12700,26 @@
       <c r="M135">
         <v>944751590837</v>
       </c>
-    </row>
-    <row r="136" spans="1:15">
+      <c r="P135">
+        <v>0</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+      <c r="T135">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U135">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V135">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -8811,8 +12765,32 @@
       <c r="O136">
         <v>0.2399</v>
       </c>
-    </row>
-    <row r="137" spans="1:15">
+      <c r="P136">
+        <v>70</v>
+      </c>
+      <c r="Q136">
+        <v>80</v>
+      </c>
+      <c r="R136">
+        <v>-4</v>
+      </c>
+      <c r="S136">
+        <v>-2</v>
+      </c>
+      <c r="T136">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="U136">
+        <f t="shared" si="7"/>
+        <v>78</v>
+      </c>
+      <c r="V136">
+        <f t="shared" si="8"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -8856,10 +12834,34 @@
         <v>2.52</v>
       </c>
       <c r="O137">
-        <v>0.0506</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15">
+        <v>5.0599999999999999E-2</v>
+      </c>
+      <c r="P137">
+        <v>80</v>
+      </c>
+      <c r="Q137">
+        <v>90</v>
+      </c>
+      <c r="R137">
+        <v>2</v>
+      </c>
+      <c r="S137">
+        <v>4</v>
+      </c>
+      <c r="T137">
+        <f t="shared" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="U137">
+        <f t="shared" si="7"/>
+        <v>94</v>
+      </c>
+      <c r="V137">
+        <f t="shared" si="8"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -8893,8 +12895,26 @@
       <c r="M138">
         <v>3659511873386</v>
       </c>
-    </row>
-    <row r="139" spans="1:15">
+      <c r="P138">
+        <v>0</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="T138">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U138">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V138">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -8938,10 +12958,34 @@
         <v>39.68</v>
       </c>
       <c r="O139">
-        <v>0.6796</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15">
+        <v>0.67959999999999998</v>
+      </c>
+      <c r="P139">
+        <v>60</v>
+      </c>
+      <c r="Q139">
+        <v>70</v>
+      </c>
+      <c r="R139">
+        <v>-2</v>
+      </c>
+      <c r="S139">
+        <v>-2</v>
+      </c>
+      <c r="T139">
+        <f t="shared" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="U139">
+        <f t="shared" si="7"/>
+        <v>68</v>
+      </c>
+      <c r="V139">
+        <f t="shared" si="8"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -8985,10 +13029,34 @@
         <v>49.82</v>
       </c>
       <c r="O140">
-        <v>1.15</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P140">
+        <v>50</v>
+      </c>
+      <c r="Q140">
+        <v>60</v>
+      </c>
+      <c r="R140">
+        <v>-4</v>
+      </c>
+      <c r="S140">
+        <v>-4</v>
+      </c>
+      <c r="T140">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="U140">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="V140">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -9022,8 +13090,26 @@
       <c r="M141">
         <v>1140634940904</v>
       </c>
-    </row>
-    <row r="142" spans="1:15">
+      <c r="P141">
+        <v>0</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="T141">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U141">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V141">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -9064,13 +13150,37 @@
         <v>2105700159429</v>
       </c>
       <c r="N142">
-        <v>8.800000000000001</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="O142">
-        <v>0.173</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15">
+        <v>0.17299999999999999</v>
+      </c>
+      <c r="P142">
+        <v>70</v>
+      </c>
+      <c r="Q142">
+        <v>80</v>
+      </c>
+      <c r="R142">
+        <v>0</v>
+      </c>
+      <c r="S142">
+        <v>0</v>
+      </c>
+      <c r="T142">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="U142">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="V142">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -9114,10 +13224,34 @@
         <v>8.69</v>
       </c>
       <c r="O143">
-        <v>0.1274</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15">
+        <v>0.12740000000000001</v>
+      </c>
+      <c r="P143">
+        <v>70</v>
+      </c>
+      <c r="Q143">
+        <v>80</v>
+      </c>
+      <c r="R143">
+        <v>-2</v>
+      </c>
+      <c r="S143">
+        <v>-2</v>
+      </c>
+      <c r="T143">
+        <f t="shared" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="U143">
+        <f t="shared" si="7"/>
+        <v>78</v>
+      </c>
+      <c r="V143">
+        <f t="shared" si="8"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -9151,8 +13285,26 @@
       <c r="M144">
         <v>1299186315392</v>
       </c>
-    </row>
-    <row r="145" spans="1:15">
+      <c r="P144">
+        <v>0</v>
+      </c>
+      <c r="Q144">
+        <v>0</v>
+      </c>
+      <c r="T144">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U144">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V144">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -9196,10 +13348,34 @@
         <v>14.18</v>
       </c>
       <c r="O145">
-        <v>0.2862</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15">
+        <v>0.28620000000000001</v>
+      </c>
+      <c r="P145">
+        <v>70</v>
+      </c>
+      <c r="Q145">
+        <v>80</v>
+      </c>
+      <c r="R145">
+        <v>0</v>
+      </c>
+      <c r="S145">
+        <v>-2</v>
+      </c>
+      <c r="T145">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="U145">
+        <f t="shared" si="7"/>
+        <v>78</v>
+      </c>
+      <c r="V145">
+        <f t="shared" si="8"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -9243,10 +13419,34 @@
         <v>119.17</v>
       </c>
       <c r="O146">
-        <v>0.3423</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15">
+        <v>0.34229999999999999</v>
+      </c>
+      <c r="P146">
+        <v>40</v>
+      </c>
+      <c r="Q146">
+        <v>80</v>
+      </c>
+      <c r="R146">
+        <v>-4</v>
+      </c>
+      <c r="S146">
+        <v>-2</v>
+      </c>
+      <c r="T146">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="U146">
+        <f t="shared" si="7"/>
+        <v>78</v>
+      </c>
+      <c r="V146">
+        <f t="shared" si="8"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -9280,8 +13480,26 @@
       <c r="M147">
         <v>78784538818</v>
       </c>
-    </row>
-    <row r="148" spans="1:15">
+      <c r="P147">
+        <v>0</v>
+      </c>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+      <c r="T147">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U147">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V147">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -9327,8 +13545,32 @@
       <c r="O148">
         <v>1.8209</v>
       </c>
-    </row>
-    <row r="149" spans="1:15">
+      <c r="P148">
+        <v>50</v>
+      </c>
+      <c r="Q148">
+        <v>60</v>
+      </c>
+      <c r="R148">
+        <v>-4</v>
+      </c>
+      <c r="S148">
+        <v>-4</v>
+      </c>
+      <c r="T148">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="U148">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="V148">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -9369,13 +13611,37 @@
         <v>859871345880</v>
       </c>
       <c r="N149">
-        <v>19.85</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="O149">
-        <v>0.3769</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15">
+        <v>0.37690000000000001</v>
+      </c>
+      <c r="P149">
+        <v>70</v>
+      </c>
+      <c r="Q149">
+        <v>80</v>
+      </c>
+      <c r="R149">
+        <v>-4</v>
+      </c>
+      <c r="S149">
+        <v>-2</v>
+      </c>
+      <c r="T149">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="U149">
+        <f t="shared" si="7"/>
+        <v>78</v>
+      </c>
+      <c r="V149">
+        <f t="shared" si="8"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -9419,10 +13685,34 @@
         <v>53.56</v>
       </c>
       <c r="O150">
-        <v>1.043</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15">
+        <v>1.0429999999999999</v>
+      </c>
+      <c r="P150">
+        <v>50</v>
+      </c>
+      <c r="Q150">
+        <v>60</v>
+      </c>
+      <c r="R150">
+        <v>-4</v>
+      </c>
+      <c r="S150">
+        <v>-2</v>
+      </c>
+      <c r="T150">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="U150">
+        <f t="shared" si="7"/>
+        <v>58</v>
+      </c>
+      <c r="V150">
+        <f t="shared" si="8"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -9466,10 +13756,34 @@
         <v>0.08</v>
       </c>
       <c r="O151">
-        <v>0.0276</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15">
+        <v>2.76E-2</v>
+      </c>
+      <c r="P151">
+        <v>80</v>
+      </c>
+      <c r="Q151">
+        <v>90</v>
+      </c>
+      <c r="R151">
+        <v>4</v>
+      </c>
+      <c r="S151">
+        <v>4</v>
+      </c>
+      <c r="T151">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="U151">
+        <f t="shared" si="7"/>
+        <v>94</v>
+      </c>
+      <c r="V151">
+        <f t="shared" si="8"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -9509,8 +13823,29 @@
       <c r="N152">
         <v>1.17</v>
       </c>
-    </row>
-    <row r="153" spans="1:15">
+      <c r="P152">
+        <v>80</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+      <c r="R152">
+        <v>4</v>
+      </c>
+      <c r="T152">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="U152">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V152">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -9527,7 +13862,7 @@
         <v>-1700</v>
       </c>
       <c r="F153">
-        <v>-4.11</v>
+        <v>-4.1100000000000003</v>
       </c>
       <c r="G153">
         <v>1550885</v>
@@ -9544,8 +13879,26 @@
       <c r="M153">
         <v>803490624345</v>
       </c>
-    </row>
-    <row r="154" spans="1:15">
+      <c r="P153">
+        <v>0</v>
+      </c>
+      <c r="Q153">
+        <v>0</v>
+      </c>
+      <c r="T153">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U153">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V153">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -9589,10 +13942,34 @@
         <v>18.43</v>
       </c>
       <c r="O154">
-        <v>0.3942</v>
-      </c>
-    </row>
-    <row r="155" spans="1:15">
+        <v>0.39419999999999999</v>
+      </c>
+      <c r="P154">
+        <v>70</v>
+      </c>
+      <c r="Q154">
+        <v>80</v>
+      </c>
+      <c r="R154">
+        <v>-2</v>
+      </c>
+      <c r="S154">
+        <v>-2</v>
+      </c>
+      <c r="T154">
+        <f t="shared" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="U154">
+        <f t="shared" si="7"/>
+        <v>78</v>
+      </c>
+      <c r="V154">
+        <f t="shared" si="8"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -9636,10 +14013,34 @@
         <v>4.66</v>
       </c>
       <c r="O155">
-        <v>0.09379999999999999</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15">
+        <v>9.3799999999999994E-2</v>
+      </c>
+      <c r="P155">
+        <v>80</v>
+      </c>
+      <c r="Q155">
+        <v>90</v>
+      </c>
+      <c r="R155">
+        <v>-2</v>
+      </c>
+      <c r="S155">
+        <v>0</v>
+      </c>
+      <c r="T155">
+        <f t="shared" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="U155">
+        <f t="shared" si="7"/>
+        <v>90</v>
+      </c>
+      <c r="V155">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="156" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -9683,10 +14084,34 @@
         <v>7.84</v>
       </c>
       <c r="O156">
-        <v>1.7787</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15">
+        <v>1.7786999999999999</v>
+      </c>
+      <c r="P156">
+        <v>70</v>
+      </c>
+      <c r="Q156">
+        <v>60</v>
+      </c>
+      <c r="R156">
+        <v>0</v>
+      </c>
+      <c r="S156">
+        <v>-4</v>
+      </c>
+      <c r="T156">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="U156">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="V156">
+        <f t="shared" si="8"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -9720,8 +14145,26 @@
       <c r="M157">
         <v>931924052762</v>
       </c>
-    </row>
-    <row r="158" spans="1:15">
+      <c r="P157">
+        <v>0</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+      <c r="T157">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U157">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V157">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -9755,8 +14198,26 @@
       <c r="M158">
         <v>166144370475</v>
       </c>
-    </row>
-    <row r="159" spans="1:15">
+      <c r="P158">
+        <v>0</v>
+      </c>
+      <c r="Q158">
+        <v>0</v>
+      </c>
+      <c r="T158">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U158">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V158">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -9800,10 +14261,34 @@
         <v>0.04</v>
       </c>
       <c r="O159">
-        <v>0.0009</v>
-      </c>
-    </row>
-    <row r="160" spans="1:15">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="P159">
+        <v>80</v>
+      </c>
+      <c r="Q159">
+        <v>90</v>
+      </c>
+      <c r="R159">
+        <v>4</v>
+      </c>
+      <c r="S159">
+        <v>4</v>
+      </c>
+      <c r="T159">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="U159">
+        <f t="shared" si="7"/>
+        <v>94</v>
+      </c>
+      <c r="V159">
+        <f t="shared" si="8"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="160" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -9847,10 +14332,34 @@
         <v>0.31</v>
       </c>
       <c r="O160">
-        <v>0.0062</v>
-      </c>
-    </row>
-    <row r="161" spans="1:15">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="P160">
+        <v>80</v>
+      </c>
+      <c r="Q160">
+        <v>90</v>
+      </c>
+      <c r="R160">
+        <v>4</v>
+      </c>
+      <c r="S160">
+        <v>2</v>
+      </c>
+      <c r="T160">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="U160">
+        <f t="shared" si="7"/>
+        <v>92</v>
+      </c>
+      <c r="V160">
+        <f t="shared" si="8"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -9891,13 +14400,37 @@
         <v>1233370463396</v>
       </c>
       <c r="N161">
-        <v>93.15000000000001</v>
+        <v>93.15</v>
       </c>
       <c r="O161">
-        <v>1.5146</v>
-      </c>
-    </row>
-    <row r="162" spans="1:15">
+        <v>1.5145999999999999</v>
+      </c>
+      <c r="P161">
+        <v>50</v>
+      </c>
+      <c r="Q161">
+        <v>60</v>
+      </c>
+      <c r="R161">
+        <v>-4</v>
+      </c>
+      <c r="S161">
+        <v>-4</v>
+      </c>
+      <c r="T161">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="U161">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="V161">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -9931,8 +14464,26 @@
       <c r="M162">
         <v>203704517635</v>
       </c>
-    </row>
-    <row r="163" spans="1:15">
+      <c r="P162">
+        <v>0</v>
+      </c>
+      <c r="Q162">
+        <v>0</v>
+      </c>
+      <c r="T162">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U162">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V162">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -9966,8 +14517,26 @@
       <c r="M163">
         <v>14066102887</v>
       </c>
-    </row>
-    <row r="164" spans="1:15">
+      <c r="P163">
+        <v>0</v>
+      </c>
+      <c r="Q163">
+        <v>0</v>
+      </c>
+      <c r="T163">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U163">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V163">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -10001,8 +14570,26 @@
       <c r="M164">
         <v>88602270090</v>
       </c>
-    </row>
-    <row r="165" spans="1:15">
+      <c r="P164">
+        <v>0</v>
+      </c>
+      <c r="Q164">
+        <v>0</v>
+      </c>
+      <c r="T164">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U164">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V164">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -10048,8 +14635,32 @@
       <c r="O165">
         <v>0.1239</v>
       </c>
-    </row>
-    <row r="166" spans="1:15">
+      <c r="P165">
+        <v>70</v>
+      </c>
+      <c r="Q165">
+        <v>80</v>
+      </c>
+      <c r="R165">
+        <v>0</v>
+      </c>
+      <c r="S165">
+        <v>2</v>
+      </c>
+      <c r="T165">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="U165">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="V165">
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -10093,10 +14704,34 @@
         <v>22.34</v>
       </c>
       <c r="O166">
-        <v>0.2012</v>
-      </c>
-    </row>
-    <row r="167" spans="1:15">
+        <v>0.20119999999999999</v>
+      </c>
+      <c r="P166">
+        <v>60</v>
+      </c>
+      <c r="Q166">
+        <v>80</v>
+      </c>
+      <c r="R166">
+        <v>-2</v>
+      </c>
+      <c r="S166">
+        <v>0</v>
+      </c>
+      <c r="T166">
+        <f t="shared" si="6"/>
+        <v>58</v>
+      </c>
+      <c r="U166">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="V166">
+        <f t="shared" si="8"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -10127,8 +14762,26 @@
       <c r="J167" t="s">
         <v>734</v>
       </c>
-    </row>
-    <row r="168" spans="1:15">
+      <c r="P167">
+        <v>0</v>
+      </c>
+      <c r="Q167">
+        <v>0</v>
+      </c>
+      <c r="T167">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U167">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V167">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -10174,8 +14827,32 @@
       <c r="O168">
         <v>0.3518</v>
       </c>
-    </row>
-    <row r="169" spans="1:15">
+      <c r="P168">
+        <v>70</v>
+      </c>
+      <c r="Q168">
+        <v>80</v>
+      </c>
+      <c r="R168">
+        <v>-4</v>
+      </c>
+      <c r="S168">
+        <v>-4</v>
+      </c>
+      <c r="T168">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="U168">
+        <f t="shared" si="7"/>
+        <v>76</v>
+      </c>
+      <c r="V168">
+        <f t="shared" si="8"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -10192,7 +14869,7 @@
         <v>-100</v>
       </c>
       <c r="F169">
-        <v>-0.58</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="G169">
         <v>1167730</v>
@@ -10209,8 +14886,26 @@
       <c r="M169">
         <v>541445421587</v>
       </c>
-    </row>
-    <row r="170" spans="1:15">
+      <c r="P169">
+        <v>0</v>
+      </c>
+      <c r="Q169">
+        <v>0</v>
+      </c>
+      <c r="T169">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U169">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V169">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -10256,8 +14951,32 @@
       <c r="O170">
         <v>1.0647</v>
       </c>
-    </row>
-    <row r="171" spans="1:15">
+      <c r="P170">
+        <v>50</v>
+      </c>
+      <c r="Q170">
+        <v>60</v>
+      </c>
+      <c r="R170">
+        <v>-4</v>
+      </c>
+      <c r="S170">
+        <v>-4</v>
+      </c>
+      <c r="T170">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="U170">
+        <f t="shared" si="7"/>
+        <v>56</v>
+      </c>
+      <c r="V170">
+        <f t="shared" si="8"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -10291,8 +15010,26 @@
       <c r="M171">
         <v>3258240041170</v>
       </c>
-    </row>
-    <row r="172" spans="1:15">
+      <c r="P171">
+        <v>0</v>
+      </c>
+      <c r="Q171">
+        <v>0</v>
+      </c>
+      <c r="T171">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U171">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V171">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -10338,8 +15075,32 @@
       <c r="O172">
         <v>0.2384</v>
       </c>
-    </row>
-    <row r="173" spans="1:15">
+      <c r="P172">
+        <v>70</v>
+      </c>
+      <c r="Q172">
+        <v>80</v>
+      </c>
+      <c r="R172">
+        <v>0</v>
+      </c>
+      <c r="S172">
+        <v>0</v>
+      </c>
+      <c r="T172">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="U172">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="V172">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -10373,8 +15134,26 @@
       <c r="M173">
         <v>1599434375881</v>
       </c>
-    </row>
-    <row r="174" spans="1:15">
+      <c r="P173">
+        <v>0</v>
+      </c>
+      <c r="Q173">
+        <v>0</v>
+      </c>
+      <c r="T173">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U173">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V173">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -10418,10 +15197,34 @@
         <v>1.3</v>
       </c>
       <c r="O174">
-        <v>0.0102</v>
-      </c>
-    </row>
-    <row r="175" spans="1:15">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="P174">
+        <v>80</v>
+      </c>
+      <c r="Q174">
+        <v>90</v>
+      </c>
+      <c r="R174">
+        <v>4</v>
+      </c>
+      <c r="S174">
+        <v>4</v>
+      </c>
+      <c r="T174">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="U174">
+        <f t="shared" si="7"/>
+        <v>94</v>
+      </c>
+      <c r="V174">
+        <f t="shared" si="8"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -10465,10 +15268,34 @@
         <v>0.12</v>
       </c>
       <c r="O175">
-        <v>0.0009</v>
-      </c>
-    </row>
-    <row r="176" spans="1:15">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="P175">
+        <v>80</v>
+      </c>
+      <c r="Q175">
+        <v>90</v>
+      </c>
+      <c r="R175">
+        <v>4</v>
+      </c>
+      <c r="S175">
+        <v>4</v>
+      </c>
+      <c r="T175">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="U175">
+        <f t="shared" si="7"/>
+        <v>94</v>
+      </c>
+      <c r="V175">
+        <f t="shared" si="8"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="176" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -10509,13 +15336,37 @@
         <v>1084990445012</v>
       </c>
       <c r="N176">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="O176">
-        <v>0.0022</v>
-      </c>
-    </row>
-    <row r="177" spans="1:15">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="P176">
+        <v>80</v>
+      </c>
+      <c r="Q176">
+        <v>90</v>
+      </c>
+      <c r="R176">
+        <v>4</v>
+      </c>
+      <c r="S176">
+        <v>4</v>
+      </c>
+      <c r="T176">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="U176">
+        <f t="shared" si="7"/>
+        <v>94</v>
+      </c>
+      <c r="V176">
+        <f t="shared" si="8"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="177" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -10559,10 +15410,34 @@
         <v>3.33</v>
       </c>
       <c r="O177">
-        <v>0.0638</v>
-      </c>
-    </row>
-    <row r="178" spans="1:15">
+        <v>6.3799999999999996E-2</v>
+      </c>
+      <c r="P177">
+        <v>80</v>
+      </c>
+      <c r="Q177">
+        <v>90</v>
+      </c>
+      <c r="R177">
+        <v>2</v>
+      </c>
+      <c r="S177">
+        <v>2</v>
+      </c>
+      <c r="T177">
+        <f t="shared" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="U177">
+        <f t="shared" si="7"/>
+        <v>92</v>
+      </c>
+      <c r="V177">
+        <f t="shared" si="8"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="178" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -10596,8 +15471,26 @@
       <c r="M178">
         <v>562838132117</v>
       </c>
-    </row>
-    <row r="179" spans="1:15">
+      <c r="P178">
+        <v>0</v>
+      </c>
+      <c r="Q178">
+        <v>0</v>
+      </c>
+      <c r="T178">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U178">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V178">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -10641,10 +15534,34 @@
         <v>0.25</v>
       </c>
       <c r="O179">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="180" spans="1:15">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="P179">
+        <v>80</v>
+      </c>
+      <c r="Q179">
+        <v>90</v>
+      </c>
+      <c r="R179">
+        <v>4</v>
+      </c>
+      <c r="S179">
+        <v>4</v>
+      </c>
+      <c r="T179">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="U179">
+        <f t="shared" si="7"/>
+        <v>94</v>
+      </c>
+      <c r="V179">
+        <f t="shared" si="8"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -10678,8 +15595,26 @@
       <c r="M180">
         <v>26051792402</v>
       </c>
-    </row>
-    <row r="181" spans="1:15">
+      <c r="P180">
+        <v>0</v>
+      </c>
+      <c r="Q180">
+        <v>0</v>
+      </c>
+      <c r="T180">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U180">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V180">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -10710,8 +15645,26 @@
       <c r="J181" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="182" spans="1:15">
+      <c r="P181">
+        <v>0</v>
+      </c>
+      <c r="Q181">
+        <v>0</v>
+      </c>
+      <c r="T181">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U181">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V181">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -10742,8 +15695,26 @@
       <c r="J182" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="183" spans="1:15">
+      <c r="P182">
+        <v>0</v>
+      </c>
+      <c r="Q182">
+        <v>0</v>
+      </c>
+      <c r="T182">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U182">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V182">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -10787,10 +15758,34 @@
         <v>0.21</v>
       </c>
       <c r="O183">
-        <v>0.0015</v>
-      </c>
-    </row>
-    <row r="184" spans="1:15">
+        <v>1.5E-3</v>
+      </c>
+      <c r="P183">
+        <v>80</v>
+      </c>
+      <c r="Q183">
+        <v>90</v>
+      </c>
+      <c r="R183">
+        <v>4</v>
+      </c>
+      <c r="S183">
+        <v>4</v>
+      </c>
+      <c r="T183">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="U183">
+        <f t="shared" si="7"/>
+        <v>94</v>
+      </c>
+      <c r="V183">
+        <f t="shared" si="8"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="184" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -10831,13 +15826,37 @@
         <v>702070775408</v>
       </c>
       <c r="N184">
-        <v>73.15000000000001</v>
+        <v>73.150000000000006</v>
       </c>
       <c r="O184">
         <v>1.4741</v>
       </c>
-    </row>
-    <row r="185" spans="1:15">
+      <c r="P184">
+        <v>50</v>
+      </c>
+      <c r="Q184">
+        <v>60</v>
+      </c>
+      <c r="R184">
+        <v>0</v>
+      </c>
+      <c r="S184">
+        <v>0</v>
+      </c>
+      <c r="T184">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="U184">
+        <f t="shared" si="7"/>
+        <v>60</v>
+      </c>
+      <c r="V184">
+        <f t="shared" si="8"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="185" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -10871,8 +15890,26 @@
       <c r="M185">
         <v>208463639670</v>
       </c>
-    </row>
-    <row r="186" spans="1:15">
+      <c r="P185">
+        <v>0</v>
+      </c>
+      <c r="Q185">
+        <v>0</v>
+      </c>
+      <c r="T185">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U185">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V185">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -10903,8 +15940,26 @@
       <c r="J186" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="187" spans="1:15">
+      <c r="P186">
+        <v>0</v>
+      </c>
+      <c r="Q186">
+        <v>0</v>
+      </c>
+      <c r="T186">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U186">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V186">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -10921,7 +15976,7 @@
         <v>-150</v>
       </c>
       <c r="F187">
-        <v>-0.9399999999999999</v>
+        <v>-0.94</v>
       </c>
       <c r="G187">
         <v>977320</v>
@@ -10938,8 +15993,26 @@
       <c r="M187">
         <v>184462332044</v>
       </c>
-    </row>
-    <row r="188" spans="1:15">
+      <c r="P187">
+        <v>0</v>
+      </c>
+      <c r="Q187">
+        <v>0</v>
+      </c>
+      <c r="T187">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U187">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V187">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -10973,8 +16046,26 @@
       <c r="M188">
         <v>1657328003744</v>
       </c>
-    </row>
-    <row r="189" spans="1:15">
+      <c r="P188">
+        <v>0</v>
+      </c>
+      <c r="Q188">
+        <v>0</v>
+      </c>
+      <c r="T188">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U188">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V188">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -10991,7 +16082,7 @@
         <v>100</v>
       </c>
       <c r="F189">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G189">
         <v>999066</v>
@@ -11018,10 +16109,34 @@
         <v>11.25</v>
       </c>
       <c r="O189">
-        <v>0.2289</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15">
+        <v>0.22889999999999999</v>
+      </c>
+      <c r="P189">
+        <v>70</v>
+      </c>
+      <c r="Q189">
+        <v>80</v>
+      </c>
+      <c r="R189">
+        <v>0</v>
+      </c>
+      <c r="S189">
+        <v>0</v>
+      </c>
+      <c r="T189">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="U189">
+        <f t="shared" si="7"/>
+        <v>80</v>
+      </c>
+      <c r="V189">
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="190" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -11067,8 +16182,32 @@
       <c r="O190">
         <v>0.1042</v>
       </c>
-    </row>
-    <row r="191" spans="1:15">
+      <c r="P190">
+        <v>70</v>
+      </c>
+      <c r="Q190">
+        <v>80</v>
+      </c>
+      <c r="R190">
+        <v>2</v>
+      </c>
+      <c r="S190">
+        <v>2</v>
+      </c>
+      <c r="T190">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="U190">
+        <f t="shared" si="7"/>
+        <v>82</v>
+      </c>
+      <c r="V190">
+        <f t="shared" si="8"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="191" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -11112,10 +16251,34 @@
         <v>14.69</v>
       </c>
       <c r="O191">
-        <v>0.2916</v>
-      </c>
-    </row>
-    <row r="192" spans="1:15">
+        <v>0.29160000000000003</v>
+      </c>
+      <c r="P191">
+        <v>70</v>
+      </c>
+      <c r="Q191">
+        <v>80</v>
+      </c>
+      <c r="R191">
+        <v>-2</v>
+      </c>
+      <c r="S191">
+        <v>-2</v>
+      </c>
+      <c r="T191">
+        <f t="shared" si="6"/>
+        <v>68</v>
+      </c>
+      <c r="U191">
+        <f t="shared" si="7"/>
+        <v>78</v>
+      </c>
+      <c r="V191">
+        <f t="shared" si="8"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="192" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -11159,10 +16322,34 @@
         <v>0.7</v>
       </c>
       <c r="O192">
-        <v>0.0055</v>
-      </c>
-    </row>
-    <row r="193" spans="1:15">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="P192">
+        <v>80</v>
+      </c>
+      <c r="Q192">
+        <v>90</v>
+      </c>
+      <c r="R192">
+        <v>2</v>
+      </c>
+      <c r="S192">
+        <v>2</v>
+      </c>
+      <c r="T192">
+        <f t="shared" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="U192">
+        <f t="shared" si="7"/>
+        <v>92</v>
+      </c>
+      <c r="V192">
+        <f t="shared" si="8"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="193" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -11206,10 +16393,34 @@
         <v>4.45</v>
       </c>
       <c r="O193">
-        <v>0.0958</v>
-      </c>
-    </row>
-    <row r="194" spans="1:15">
+        <v>9.5799999999999996E-2</v>
+      </c>
+      <c r="P193">
+        <v>80</v>
+      </c>
+      <c r="Q193">
+        <v>90</v>
+      </c>
+      <c r="R193">
+        <v>2</v>
+      </c>
+      <c r="S193">
+        <v>2</v>
+      </c>
+      <c r="T193">
+        <f t="shared" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="U193">
+        <f t="shared" si="7"/>
+        <v>92</v>
+      </c>
+      <c r="V193">
+        <f t="shared" si="8"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="194" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -11253,10 +16464,34 @@
         <v>0.27</v>
       </c>
       <c r="O194">
-        <v>452.1981</v>
-      </c>
-    </row>
-    <row r="195" spans="1:15">
+        <v>452.19810000000001</v>
+      </c>
+      <c r="P194">
+        <v>80</v>
+      </c>
+      <c r="Q194">
+        <v>30</v>
+      </c>
+      <c r="R194">
+        <v>0</v>
+      </c>
+      <c r="S194">
+        <v>-4</v>
+      </c>
+      <c r="T194">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="U194">
+        <f t="shared" si="7"/>
+        <v>26</v>
+      </c>
+      <c r="V194">
+        <f t="shared" si="8"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="195" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -11300,10 +16535,34 @@
         <v>2.14</v>
       </c>
       <c r="O195">
-        <v>0.0439</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15">
+        <v>4.3900000000000002E-2</v>
+      </c>
+      <c r="P195">
+        <v>80</v>
+      </c>
+      <c r="Q195">
+        <v>90</v>
+      </c>
+      <c r="R195">
+        <v>4</v>
+      </c>
+      <c r="S195">
+        <v>4</v>
+      </c>
+      <c r="T195">
+        <f t="shared" ref="T195:T201" si="9">P195+R195</f>
+        <v>84</v>
+      </c>
+      <c r="U195">
+        <f t="shared" ref="U195:U201" si="10">Q195+S195</f>
+        <v>94</v>
+      </c>
+      <c r="V195">
+        <f t="shared" ref="V195:V201" si="11">(T195+U195)/2</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="196" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -11337,8 +16596,26 @@
       <c r="M196">
         <v>214511253556</v>
       </c>
-    </row>
-    <row r="197" spans="1:15">
+      <c r="P196">
+        <v>0</v>
+      </c>
+      <c r="Q196">
+        <v>0</v>
+      </c>
+      <c r="T196">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U196">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V196">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -11372,8 +16649,26 @@
       <c r="M197">
         <v>26522599197</v>
       </c>
-    </row>
-    <row r="198" spans="1:15">
+      <c r="P197">
+        <v>0</v>
+      </c>
+      <c r="Q197">
+        <v>0</v>
+      </c>
+      <c r="T197">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U197">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V197">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -11417,10 +16712,34 @@
         <v>19.53</v>
       </c>
       <c r="O198">
-        <v>0.4185</v>
-      </c>
-    </row>
-    <row r="199" spans="1:15">
+        <v>0.41849999999999998</v>
+      </c>
+      <c r="P198">
+        <v>70</v>
+      </c>
+      <c r="Q198">
+        <v>80</v>
+      </c>
+      <c r="R198">
+        <v>-2</v>
+      </c>
+      <c r="S198">
+        <v>-2</v>
+      </c>
+      <c r="T198">
+        <f t="shared" si="9"/>
+        <v>68</v>
+      </c>
+      <c r="U198">
+        <f t="shared" si="10"/>
+        <v>78</v>
+      </c>
+      <c r="V198">
+        <f t="shared" si="11"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="199" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -11454,8 +16773,26 @@
       <c r="M199">
         <v>542634874132</v>
       </c>
-    </row>
-    <row r="200" spans="1:15">
+      <c r="P199">
+        <v>0</v>
+      </c>
+      <c r="Q199">
+        <v>0</v>
+      </c>
+      <c r="T199">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U199">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V199">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -11489,8 +16826,26 @@
       <c r="M200">
         <v>213217339911</v>
       </c>
-    </row>
-    <row r="201" spans="1:15">
+      <c r="P200">
+        <v>0</v>
+      </c>
+      <c r="Q200">
+        <v>0</v>
+      </c>
+      <c r="T200">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U200">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V200">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -11524,8 +16879,33 @@
       <c r="M201">
         <v>636777102378</v>
       </c>
+      <c r="P201">
+        <v>0</v>
+      </c>
+      <c r="Q201">
+        <v>0</v>
+      </c>
+      <c r="T201">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U201">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V201">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="Y29:Z29"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>